--- a/Вклад в работу.xlsx
+++ b/Вклад в работу.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer\domains\Turitsyna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4685625F-015A-4405-B026-452C6D1AA626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF10DC73-C099-4E6F-8A07-A097BD039A48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1380,8 +1380,8 @@
   </sheetPr>
   <dimension ref="A1:AB100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1504,11 +1504,11 @@
         <v>1</v>
       </c>
       <c r="Q2" s="12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R2" s="4">
         <f>SUM(D2:Q2)/14</f>
-        <v>0.34285714285714286</v>
+        <v>0.33571428571428569</v>
       </c>
       <c r="S2" s="12">
         <v>0.33</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="11">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -1553,11 +1553,11 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="12">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" ref="R3:R4" si="0">SUM(D3:Q3)/14</f>
-        <v>0.32142857142857145</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="S3" s="12">
         <v>0.33</v>
@@ -1580,7 +1580,9 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11">
+        <v>0.15</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1602,11 +1604,11 @@
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="12">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="0"/>
-        <v>0.33571428571428569</v>
+        <v>0.33214285714285713</v>
       </c>
       <c r="S4" s="12">
         <v>0.33</v>
